--- a/DEMO/org.openl.rules.demo/data/openl-demo/design-repository/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
+++ b/DEMO/org.openl.rules.demo/data/openl-demo/design-repository/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\openl-demo-app-5.23.3\apache-tomcat-9.0.30\openl-demo\user-workspace\DEFAULT\Example 3 - Auto Policy Calculation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6FAC19-624E-4F82-A571-226E42C16C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="45" windowWidth="15180" windowHeight="10530" tabRatio="921" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="921" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="20" r:id="rId1"/>
@@ -550,7 +556,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules EligibilityType</t>
     </r>
     <r>
       <rPr>
@@ -569,29 +575,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">VehicleEligibilityScore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(EligibilityType vehicleEligibility)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules EligibilityType</t>
+      <t>DriverEligibility</t>
     </r>
     <r>
       <rPr>
@@ -601,6 +585,28 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(DriverType driverType, Boolean hadTraining)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules DriverRisk</t>
     </r>
     <r>
       <rPr>
@@ -610,54 +616,330 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>DriverEligibility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(DriverType driverType, Boolean hadTraining)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DriverRisk</t>
+      <t xml:space="preserve"> DriverRisk</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> DriverRisk</t>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Integer numDUI, Integer numAccidents, Integer numMovingViolations)</t>
+    </r>
+  </si>
+  <si>
+    <t>TheftRating</t>
+  </si>
+  <si>
+    <t>InjuryRating</t>
+  </si>
+  <si>
+    <t>DriverType</t>
+  </si>
+  <si>
+    <t>driverType</t>
+  </si>
+  <si>
+    <t>DriverRisk</t>
+  </si>
+  <si>
+    <t>driverRisk</t>
+  </si>
+  <si>
+    <t>VehiclesPremium</t>
+  </si>
+  <si>
+    <t>DriversPremium</t>
+  </si>
+  <si>
+    <t>ClientDiscount</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>VehiclesScore</t>
+  </si>
+  <si>
+    <t>DriversScore</t>
+  </si>
+  <si>
+    <t>ClientTierScore</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>DriverPremium</t>
+  </si>
+  <si>
+    <t>DriverRiskPremium</t>
+  </si>
+  <si>
+    <t>AccidentPremium</t>
+  </si>
+  <si>
+    <t>AgeSurcharge</t>
+  </si>
+  <si>
+    <t>InjuryRatingSurcharge</t>
+  </si>
+  <si>
+    <t>TheftRatingSurcharge</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>= sum ( $Value$Premium ( $Vehicles ))</t>
+  </si>
+  <si>
+    <t>= sum ( $Value$Premium ( $Drivers ))</t>
+  </si>
+  <si>
+    <t>= sum ( $Value$Score ( $Vehicles ))</t>
+  </si>
+  <si>
+    <t>= sum ( $Value$Score ( $Drivers ))</t>
+  </si>
+  <si>
+    <t>= ClientDiscount ( clientTier )</t>
+  </si>
+  <si>
+    <t>= ClientTierScore ( clientTier )</t>
+  </si>
+  <si>
+    <t>= PolicyEligibility ( clientTerm, $Score )</t>
+  </si>
+  <si>
+    <t>= sum ( $VehiclesScore:$ClientTierScore )</t>
+  </si>
+  <si>
+    <t>= sum ( $VehiclesPremium:$DriversPremium ) - $ClientDiscount</t>
+  </si>
+  <si>
+    <t>= VehicleTheftRating ( bodyType, price, onHighTheftProbabilityList )</t>
+  </si>
+  <si>
+    <t>= VehicleInjuryRating ( bodyType, airbagType, hasRollBar )</t>
+  </si>
+  <si>
+    <t>= VehicleEligibility ( $InjuryRating, $TheftRating )</t>
+  </si>
+  <si>
+    <t>= VehicleEligibilityScore ( $Eligibility )</t>
+  </si>
+  <si>
+    <t>= AgeSurcharge ( $Age )</t>
+  </si>
+  <si>
+    <t>= InjuryRatingSurcharge ( $InjuryRating )</t>
+  </si>
+  <si>
+    <t>= TheftRatingSurcharge ( $TheftRating )</t>
+  </si>
+  <si>
+    <t>= BasePremium ( carType )</t>
+  </si>
+  <si>
+    <t>= sum ( $AgeSurcharge:$TheftRatingSurcharge )</t>
+  </si>
+  <si>
+    <t>= VehicleDiscount ( airbagType, hasAlarm )</t>
+  </si>
+  <si>
+    <t>= sum ( $BasePremium:$OtherSurcharges ) * ( 1 - $VehicleDiscount )</t>
+  </si>
+  <si>
+    <t>= DriverAgeType ( gender, age )</t>
+  </si>
+  <si>
+    <t>= DriverEligibility ( $DriverType, hadTraining )</t>
+  </si>
+  <si>
+    <t>= DriverRisk ( numDUI, numAccidents, numMovingViolations )</t>
+  </si>
+  <si>
+    <t>= DriverPremium ( $DriverType, maritalStatus, state )</t>
+  </si>
+  <si>
+    <t>= DriverRiskPremium ( $DriverRisk )</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>= sum ( CoverageSurcharge ( coverages) )</t>
+  </si>
+  <si>
+    <t>Calculate Total Policy Premium</t>
+  </si>
+  <si>
+    <t>Determine Client discount based on Client tier</t>
+  </si>
+  <si>
+    <t>Calculate Policy Eligibility</t>
+  </si>
+  <si>
+    <t>Calculate Policy Score</t>
+  </si>
+  <si>
+    <t>Determine Vehicle Theft Rating</t>
+  </si>
+  <si>
+    <t>Determine Vehicle Injury Rating</t>
+  </si>
+  <si>
+    <t>Determine Vehicle age</t>
+  </si>
+  <si>
+    <t>Determine Surcharge by Vehicle age</t>
+  </si>
+  <si>
+    <t>Calculate Total Vehicle Premium</t>
+  </si>
+  <si>
+    <t>Calculate Total Driver Premium</t>
+  </si>
+  <si>
+    <t>Determine Surcharge by Injury Rating</t>
+  </si>
+  <si>
+    <t>Determine Surcharge by Theft Rating</t>
+  </si>
+  <si>
+    <t>Determine Base Premium by Car Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Total Surcharge </t>
+  </si>
+  <si>
+    <t>Get Coverage Surcharge based on coverage type</t>
+  </si>
+  <si>
+    <t>Determine Driver status by driver age and gender</t>
+  </si>
+  <si>
+    <t>Determine Driver eligibility by  Driver status and whether Training is passed or not</t>
+  </si>
+  <si>
+    <t>Determine Driver risk by numbers of DUI, Accidents and Moving Violations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">= DriverTypeScore ( $DriverType, $Eligibility ) </t>
+  </si>
+  <si>
+    <t>= DriverRiskScore ( $DriverRisk )</t>
+  </si>
+  <si>
+    <t>DriverTypeScore</t>
+  </si>
+  <si>
+    <t>DriverRiskScore</t>
+  </si>
+  <si>
+    <t>= sum ( $DriverTypeScore:$DriverRiskScore )</t>
+  </si>
+  <si>
+    <t>Calculate Driver Score</t>
+  </si>
+  <si>
+    <t>Determine Driver Score by Driver risk</t>
+  </si>
+  <si>
+    <t>Determine Driver Risk Premium by Driver risk</t>
+  </si>
+  <si>
+    <t>Determine Accident Premium</t>
+  </si>
+  <si>
+    <t>Execute Premium calculation for each Vehicles</t>
+  </si>
+  <si>
+    <t>Execute Premium calculation for each Drivers</t>
+  </si>
+  <si>
+    <t>Get Total Vehicles Premium</t>
+  </si>
+  <si>
+    <t>Get Total Drivers Premium</t>
+  </si>
+  <si>
+    <t>Get Total Vehicles Score based on Vehicle eligibility</t>
+  </si>
+  <si>
+    <t>Determine Client score by Client tier</t>
+  </si>
+  <si>
+    <t>Get Total Drivers Score based on Driver type, eligibility and risk</t>
+  </si>
+  <si>
+    <t>Determine Vehicle Eligibility by Injury Rating and Theft Rating</t>
+  </si>
+  <si>
+    <t>Determine Vehicle Score by Vehicle Eligibility</t>
+  </si>
+  <si>
+    <t>Determine Vehicle Discount by Air Bag type and whether Alarm is set or not</t>
+  </si>
+  <si>
+    <t>Determine Driver Score by Driver status and eligibility</t>
+  </si>
+  <si>
+    <t>Determine Driver Premium by Driver status, maritalStatus and state</t>
+  </si>
+  <si>
+    <t>Auto Policy Calculation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules DriverType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DriverAgeType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
@@ -672,286 +954,19 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>(Integer numDUI, Integer numAccidents, Integer numMovingViolations)</t>
-    </r>
-  </si>
-  <si>
-    <t>TheftRating</t>
-  </si>
-  <si>
-    <t>InjuryRating</t>
-  </si>
-  <si>
-    <t>DriverType</t>
-  </si>
-  <si>
-    <t>driverType</t>
-  </si>
-  <si>
-    <t>DriverRisk</t>
-  </si>
-  <si>
-    <t>driverRisk</t>
-  </si>
-  <si>
-    <t>VehiclesPremium</t>
-  </si>
-  <si>
-    <t>DriversPremium</t>
-  </si>
-  <si>
-    <t>ClientDiscount</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>VehiclesScore</t>
-  </si>
-  <si>
-    <t>DriversScore</t>
-  </si>
-  <si>
-    <t>ClientTierScore</t>
-  </si>
-  <si>
-    <t>Vehicles</t>
-  </si>
-  <si>
-    <t>Drivers</t>
-  </si>
-  <si>
-    <t>DriverPremium</t>
-  </si>
-  <si>
-    <t>DriverRiskPremium</t>
-  </si>
-  <si>
-    <t>AccidentPremium</t>
-  </si>
-  <si>
-    <t>AgeSurcharge</t>
-  </si>
-  <si>
-    <t>InjuryRatingSurcharge</t>
-  </si>
-  <si>
-    <t>TheftRatingSurcharge</t>
-  </si>
-  <si>
-    <t>Eligibility</t>
-  </si>
-  <si>
-    <t>= sum ( $Value$Premium ( $Vehicles ))</t>
-  </si>
-  <si>
-    <t>= sum ( $Value$Premium ( $Drivers ))</t>
-  </si>
-  <si>
-    <t>= sum ( $Value$Score ( $Vehicles ))</t>
-  </si>
-  <si>
-    <t>= sum ( $Value$Score ( $Drivers ))</t>
-  </si>
-  <si>
-    <t>= ClientDiscount ( clientTier )</t>
-  </si>
-  <si>
-    <t>= ClientTierScore ( clientTier )</t>
-  </si>
-  <si>
-    <t>= PolicyEligibility ( clientTerm, $Score )</t>
-  </si>
-  <si>
-    <t>= sum ( $VehiclesScore:$ClientTierScore )</t>
-  </si>
-  <si>
-    <t>= sum ( $VehiclesPremium:$DriversPremium ) - $ClientDiscount</t>
-  </si>
-  <si>
-    <t>= VehicleTheftRating ( bodyType, price, onHighTheftProbabilityList )</t>
-  </si>
-  <si>
-    <t>= VehicleInjuryRating ( bodyType, airbagType, hasRollBar )</t>
-  </si>
-  <si>
-    <t>= VehicleEligibility ( $InjuryRating, $TheftRating )</t>
-  </si>
-  <si>
-    <t>= VehicleEligibilityScore ( $Eligibility )</t>
-  </si>
-  <si>
-    <t>= AgeSurcharge ( $Age )</t>
-  </si>
-  <si>
-    <t>= InjuryRatingSurcharge ( $InjuryRating )</t>
-  </si>
-  <si>
-    <t>= TheftRatingSurcharge ( $TheftRating )</t>
-  </si>
-  <si>
-    <t>= BasePremium ( carType )</t>
-  </si>
-  <si>
-    <t>= sum ( $AgeSurcharge:$TheftRatingSurcharge )</t>
-  </si>
-  <si>
-    <t>= VehicleDiscount ( airbagType, hasAlarm )</t>
-  </si>
-  <si>
-    <t>= sum ( $BasePremium:$OtherSurcharges ) * ( 1 - $VehicleDiscount )</t>
-  </si>
-  <si>
-    <t>= DriverAgeType ( gender, age )</t>
-  </si>
-  <si>
-    <t>= DriverEligibility ( $DriverType, hadTraining )</t>
-  </si>
-  <si>
-    <t>= DriverRisk ( numDUI, numAccidents, numMovingViolations )</t>
-  </si>
-  <si>
-    <t>= DriverPremium ( $DriverType, maritalStatus, state )</t>
-  </si>
-  <si>
-    <t>= DriverRiskPremium ( $DriverRisk )</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>= sum ( CoverageSurcharge ( coverages) )</t>
-  </si>
-  <si>
-    <t>Calculate Total Policy Premium</t>
-  </si>
-  <si>
-    <t>Determine Client discount based on Client tier</t>
-  </si>
-  <si>
-    <t>Calculate Policy Eligibility</t>
-  </si>
-  <si>
-    <t>Calculate Policy Score</t>
-  </si>
-  <si>
-    <t>Determine Vehicle Theft Rating</t>
-  </si>
-  <si>
-    <t>Determine Vehicle Injury Rating</t>
-  </si>
-  <si>
-    <t>Determine Vehicle age</t>
-  </si>
-  <si>
-    <t>Determine Surcharge by Vehicle age</t>
-  </si>
-  <si>
-    <t>Calculate Total Vehicle Premium</t>
-  </si>
-  <si>
-    <t>Calculate Total Driver Premium</t>
-  </si>
-  <si>
-    <t>Determine Surcharge by Injury Rating</t>
-  </si>
-  <si>
-    <t>Determine Surcharge by Theft Rating</t>
-  </si>
-  <si>
-    <t>Determine Base Premium by Car Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Total Surcharge </t>
-  </si>
-  <si>
-    <t>Get Coverage Surcharge based on coverage type</t>
-  </si>
-  <si>
-    <t>Determine Driver status by driver age and gender</t>
-  </si>
-  <si>
-    <t>Determine Driver eligibility by  Driver status and whether Training is passed or not</t>
-  </si>
-  <si>
-    <t>Determine Driver risk by numbers of DUI, Accidents and Moving Violations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">= DriverTypeScore ( $DriverType, $Eligibility ) </t>
-  </si>
-  <si>
-    <t>= DriverRiskScore ( $DriverRisk )</t>
-  </si>
-  <si>
-    <t>DriverTypeScore</t>
-  </si>
-  <si>
-    <t>DriverRiskScore</t>
-  </si>
-  <si>
-    <t>= sum ( $DriverTypeScore:$DriverRiskScore )</t>
-  </si>
-  <si>
-    <t>Calculate Driver Score</t>
-  </si>
-  <si>
-    <t>Determine Driver Score by Driver risk</t>
-  </si>
-  <si>
-    <t>Determine Driver Risk Premium by Driver risk</t>
-  </si>
-  <si>
-    <t>Determine Accident Premium</t>
-  </si>
-  <si>
-    <t>Execute Premium calculation for each Vehicles</t>
-  </si>
-  <si>
-    <t>Execute Premium calculation for each Drivers</t>
-  </si>
-  <si>
-    <t>Get Total Vehicles Premium</t>
-  </si>
-  <si>
-    <t>Get Total Drivers Premium</t>
-  </si>
-  <si>
-    <t>Get Total Vehicles Score based on Vehicle eligibility</t>
-  </si>
-  <si>
-    <t>Determine Client score by Client tier</t>
-  </si>
-  <si>
-    <t>Get Total Drivers Score based on Driver type, eligibility and risk</t>
-  </si>
-  <si>
-    <t>Determine Vehicle Eligibility by Injury Rating and Theft Rating</t>
-  </si>
-  <si>
-    <t>Determine Vehicle Score by Vehicle Eligibility</t>
-  </si>
-  <si>
-    <t>Determine Vehicle Discount by Air Bag type and whether Alarm is set or not</t>
-  </si>
-  <si>
-    <t>Determine Driver Score by Driver status and eligibility</t>
-  </si>
-  <si>
-    <t>Determine Driver Premium by Driver status, maritalStatus and state</t>
-  </si>
-  <si>
-    <t>Auto Policy Calculation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DriverType</t>
+      <t>(Gender gender, Integer age)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
     </r>
     <r>
       <rPr>
@@ -970,7 +985,19 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>DriverAgeType</t>
+      <t>Policy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
     </r>
     <r>
       <rPr>
@@ -980,28 +1007,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Gender gender, Integer age)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
     </r>
     <r>
       <rPr>
@@ -1011,92 +1016,25 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>DriverTypeScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(DriverType driverAgeType, EligibilityType driverEligibility)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Vehicle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>DriverRiskScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(DriverRisk driverRisk)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color indexed="55"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1111,47 +1049,25 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>ClientTierScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(ClientTier clientTier)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules EligibilityType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Driver</t>
+    </r>
+  </si>
+  <si>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>Domain Model</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Datatype </t>
     </r>
     <r>
       <rPr>
@@ -1161,29 +1077,29 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>PolicyEligibility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (ClientTerm clientTerm, DoubleValue score)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t xml:space="preserve">TheftRating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Datatype </t>
     </r>
     <r>
       <rPr>
@@ -1193,83 +1109,35 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>BasePremium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(CarType carType)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t xml:space="preserve">InjuryRating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>AgeSurcharge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Integer vehicleAge)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color indexed="55"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1284,61 +1152,40 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>CoverageSurcharge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (Coverage coverages)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t>AirbagType</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>InjuryRatingSurcharge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (InjuryRating injuryRating)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
     </r>
     <r>
       <rPr>
@@ -1357,7 +1204,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>TheftRatingSurcharge</t>
+      <t>CarType</t>
     </r>
     <r>
       <rPr>
@@ -1376,19 +1223,19 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>(TheftRating theftRating)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Datatype </t>
     </r>
     <r>
       <rPr>
@@ -1398,40 +1245,70 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>VehicleDiscount</t>
+      <t>Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(AirbagType airbagType, Boolean hasAlarm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>MaritalStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
     </r>
     <r>
       <rPr>
@@ -1450,38 +1327,29 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>DriverPremium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (DriverType driverType, MaritalStatus maritalStatus, String state)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>BodyType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
     </r>
     <r>
       <rPr>
@@ -1491,29 +1359,38 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>DriverRiskPremium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (DriverRisk driverRisk)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t xml:space="preserve"> EligibilityType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Datatype </t>
     </r>
     <r>
       <rPr>
@@ -1523,70 +1400,40 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>AccidentPremium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t>Gender</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ClientDiscount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (ClientTier clientTier)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color indexed="55"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Datatype </t>
     </r>
     <r>
       <rPr>
@@ -1596,7 +1443,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Policy</t>
+      <t>DriverType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
     </r>
   </si>
   <si>
@@ -1609,15 +1475,6 @@
         <charset val="204"/>
       </rPr>
       <t>Datatype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1627,7 +1484,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Vehicle</t>
+      <t xml:space="preserve"> DriverRisk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
     </r>
   </si>
   <si>
@@ -1640,12 +1507,51 @@
         <charset val="204"/>
       </rPr>
       <t>Datatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ClientTier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1660,25 +1566,35 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Driver</t>
-    </r>
-  </si>
-  <si>
-    <t>Vocabulary</t>
-  </si>
-  <si>
-    <t>Domain Model</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Datatype </t>
+      <t>ClientTerm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>= AccidentPremium () * numAccidents</t>
+  </si>
+  <si>
+    <t>= sum ( $DriverPremium:$AccidentPremium)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
     </r>
     <r>
       <rPr>
@@ -1688,29 +1604,50 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">TheftRating </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Datatype </t>
+      <t>DetermineVehiclePremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Vehicle vehicle)</t>
+    </r>
+  </si>
+  <si>
+    <t>= DetermineVehiclePremium ( vehicles )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Spreadsheet SpreadsheetResult</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1720,40 +1657,123 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">InjuryRating </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
+      <t>DetermineDriverPremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Driver driver)</t>
+    </r>
+  </si>
+  <si>
+    <t>= DetermineDriverPremium ( drivers )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Sp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>readshe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">et SpreadsheetResult </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DeterminePolicyPremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Policy policy)</t>
+    </r>
+  </si>
+  <si>
+    <t>= vehicle</t>
+  </si>
+  <si>
+    <t>= driver</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>= policy</t>
+  </si>
+  <si>
+    <t>Unique Policy Id</t>
+  </si>
+  <si>
+    <t>Unique Driver Id</t>
+  </si>
+  <si>
+    <t>Unique Vehicle Id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="23"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Integer </t>
     </r>
     <r>
       <rPr>
@@ -1763,13 +1783,49 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>AirbagType</t>
+      <t>CurrentYear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="23"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ()</t>
+    </r>
+  </si>
+  <si>
+    <t>Current Year</t>
+  </si>
+  <si>
+    <t>= Calendar.getInstance().get(Calendar.YEAR);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules TheftRating </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>VehicleTheftRating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1784,19 +1840,19 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>&lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
+      <t>(BodyType bodyType, Double price, Boolean onHighTheftProbabilityList)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -1815,38 +1871,29 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>CarType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Datatype </t>
+      <t xml:space="preserve">VehicleEligibilityScore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(EligibilityType vehicleEligibility)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -1856,29 +1903,38 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Coverage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
+      <t>DriverTypeScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(DriverType driverAgeType, EligibilityType driverEligibility)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -1897,29 +1953,38 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>MaritalStatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
+      <t>DriverRiskScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(DriverRisk driverRisk)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -1938,29 +2003,47 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>BodyType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
+      <t>ClientTierScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(ClientTier clientTier)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules EligibilityType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1970,38 +2053,29 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> EligibilityType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Datatype </t>
+      <t>PolicyEligibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (ClientTerm clientTerm, Double score)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -2011,13 +2085,52 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>Gender</t>
+      <t>BasePremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(CarType carType)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>AgeSurcharge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
@@ -2032,19 +2145,28 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>&lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Datatype </t>
+      <t>(Integer vehicleAge)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2054,38 +2176,29 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>DriverType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
+      <t>CoverageSurcharge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Coverage coverages)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -2095,29 +2208,29 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> DriverRisk </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
+      <t>InjuryRatingSurcharge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (InjuryRating injuryRating)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -2136,29 +2249,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>ClientTier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Datatype</t>
+      <t>TheftRatingSurcharge</t>
     </r>
     <r>
       <rPr>
@@ -2168,6 +2259,28 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(TheftRating theftRating)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -2177,49 +2290,13 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>ClientTerm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>= AccidentPremium () * numAccidents</t>
-  </si>
-  <si>
-    <t>= sum ( $DriverPremium:$AccidentPremium)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+      <t>VehicleDiscount</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>DetermineVehiclePremium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color indexed="55"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
@@ -2234,22 +2311,19 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>(Vehicle vehicle)</t>
-    </r>
-  </si>
-  <si>
-    <t>= DetermineVehiclePremium ( vehicles )</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Spreadsheet SpreadsheetResult</t>
+      <t>(AirbagType airbagType, Boolean hasAlarm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -2268,7 +2342,29 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>DetermineDriverPremium</t>
+      <t>DriverPremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (DriverType driverType, MaritalStatus maritalStatus, String state)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -2278,51 +2374,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Driver driver)</t>
-    </r>
-  </si>
-  <si>
-    <t>= DetermineDriverPremium ( drivers )</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Sp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>readshe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">et SpreadsheetResult </t>
     </r>
     <r>
       <rPr>
@@ -2332,59 +2383,29 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>DeterminePolicyPremium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Policy policy)</t>
-    </r>
-  </si>
-  <si>
-    <t>= vehicle</t>
-  </si>
-  <si>
-    <t>= driver</t>
-  </si>
-  <si>
-    <t>Policy</t>
-  </si>
-  <si>
-    <t>= policy</t>
-  </si>
-  <si>
-    <t>Unique Policy Id</t>
-  </si>
-  <si>
-    <t>Unique Driver Id</t>
-  </si>
-  <si>
-    <t>Unique Vehicle Id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="23"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules Integer </t>
+      <t>DriverRiskPremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (DriverRisk driverRisk)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -2394,12 +2415,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>CurrentYear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="23"/>
+      <t>AccidentPremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
         <charset val="204"/>
@@ -2408,21 +2429,15 @@
     </r>
   </si>
   <si>
-    <t>Current Year</t>
-  </si>
-  <si>
-    <t>= Calendar.getInstance().get(Calendar.YEAR);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules TheftRating </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -2432,37 +2447,28 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>VehicleTheftRating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="55"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(BodyType bodyType, Double price, Boolean onHighTheftProbabilityList)</t>
+      <t>ClientDiscount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (ClientTier clientTier)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2488,30 +2494,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="55"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="55"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="55"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2816,13 +2800,13 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2880,16 +2864,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2898,13 +2882,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2925,13 +2909,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2944,24 +2928,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2971,9 +2955,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2991,16 +2975,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3012,10 +2996,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3033,38 +3017,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3094,8 +3078,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3105,20 +3089,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3159,7 +3143,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3168,22 +3152,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3206,7 +3193,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3305,7 +3298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3338,9 +3331,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3373,6 +3383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3548,281 +3575,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="1" customWidth="1"/>
-    <col min="5" max="5" width="76.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="42.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="76.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="42.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C2" s="58"/>
       <c r="D2" s="59"/>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
     </row>
-    <row r="3" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="61"/>
       <c r="E3" s="58"/>
       <c r="F3" s="58"/>
     </row>
-    <row r="4" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
       <c r="F4" s="58"/>
     </row>
-    <row r="5" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="63"/>
     </row>
-    <row r="6" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="63"/>
     </row>
-    <row r="8" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="63"/>
     </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="117" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="117"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>125</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:8" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F22" s="63"/>
     </row>
-    <row r="23" spans="2:8" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F23" s="67"/>
     </row>
-    <row r="24" spans="2:8" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3830,7 +3857,7 @@
       <c r="F25" s="63"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -3838,7 +3865,7 @@
       <c r="F26" s="63"/>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3846,7 +3873,7 @@
       <c r="F27" s="63"/>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3854,23 +3881,23 @@
       <c r="F28" s="63"/>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="116" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D29" s="116"/>
       <c r="E29" s="116"/>
       <c r="F29" s="63"/>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>91</v>
@@ -3878,114 +3905,114 @@
       <c r="F30" s="63"/>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F31" s="63"/>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F32" s="63"/>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="2:10" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33" s="65"/>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="2:10" ht="27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="63"/>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F35" s="63"/>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" s="63"/>
       <c r="H36" s="107"/>
     </row>
-    <row r="37" spans="2:10" ht="27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F37" s="63"/>
       <c r="H37" s="107"/>
     </row>
-    <row r="38" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F38" s="63"/>
       <c r="G38" s="41"/>
@@ -3993,16 +4020,16 @@
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
     </row>
-    <row r="39" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F39" s="63"/>
       <c r="G39" s="41"/>
@@ -4010,16 +4037,16 @@
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
     </row>
-    <row r="40" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F40" s="66"/>
       <c r="G40" s="41"/>
@@ -4027,16 +4054,16 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
     </row>
-    <row r="41" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F41" s="68"/>
       <c r="G41" s="41"/>
@@ -4044,7 +4071,7 @@
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
     </row>
-    <row r="42" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -4055,7 +4082,7 @@
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -4066,7 +4093,7 @@
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="19"/>
@@ -4077,7 +4104,7 @@
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
     </row>
-    <row r="45" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="62"/>
       <c r="D45" s="7"/>
@@ -4088,10 +4115,10 @@
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
     </row>
-    <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="116" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
@@ -4100,13 +4127,13 @@
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
     </row>
-    <row r="47" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" s="52" t="s">
         <v>91</v>
@@ -4116,197 +4143,197 @@
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
     </row>
-    <row r="48" spans="2:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="20" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F48" s="63"/>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
     </row>
-    <row r="49" spans="2:6" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" s="15" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
       <c r="C49" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F49" s="22"/>
     </row>
-    <row r="50" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E50" s="64" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F50" s="63"/>
     </row>
-    <row r="51" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F51" s="63"/>
     </row>
-    <row r="52" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F52" s="63"/>
     </row>
-    <row r="53" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F53" s="63"/>
     </row>
-    <row r="54" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F54" s="63"/>
     </row>
-    <row r="55" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F55" s="63"/>
     </row>
-    <row r="56" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F56" s="63"/>
     </row>
-    <row r="57" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F57" s="65"/>
     </row>
-    <row r="58" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F58" s="66"/>
     </row>
-    <row r="59" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F59" s="66"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" s="41"/>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
@@ -4324,37 +4351,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B3:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="123" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="D4" s="123"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="54" t="s">
         <v>60</v>
@@ -4364,7 +4393,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="32" t="s">
         <v>17</v>
@@ -4374,7 +4403,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="32" t="s">
         <v>42</v>
@@ -4384,7 +4413,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="33"/>
       <c r="D8" s="84">
@@ -4392,7 +4421,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -4403,7 +4432,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>clientTier</formula1>
     </dataValidation>
   </dataValidations>
@@ -4413,27 +4442,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B3:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="49" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="105"/>
     </row>
-    <row r="4" spans="2:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -4446,7 +4475,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="2:13" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -4458,10 +4487,10 @@
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="128" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D7" s="128"/>
       <c r="E7" s="128"/>
@@ -4472,7 +4501,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="86" t="s">
         <v>88</v>
@@ -4488,7 +4517,7 @@
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="86" t="s">
         <v>98</v>
@@ -4504,7 +4533,7 @@
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="86" t="s">
         <v>105</v>
@@ -4520,7 +4549,7 @@
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="86" t="s">
         <v>89</v>
@@ -4536,7 +4565,7 @@
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="87" t="s">
         <v>90</v>
@@ -4552,7 +4581,7 @@
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -4564,7 +4593,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -4576,7 +4605,7 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -4588,10 +4617,10 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="128" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D16" s="128"/>
       <c r="E16" s="128"/>
@@ -4602,7 +4631,7 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="86" t="s">
         <v>88</v>
@@ -4618,7 +4647,7 @@
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
     </row>
-    <row r="18" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="86" t="s">
         <v>88</v>
@@ -4634,7 +4663,7 @@
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
     </row>
-    <row r="19" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="86" t="s">
         <v>92</v>
@@ -4652,7 +4681,7 @@
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
     </row>
-    <row r="20" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="86" t="s">
         <v>101</v>
@@ -4668,7 +4697,7 @@
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
     </row>
-    <row r="21" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="86" t="s">
         <v>96</v>
@@ -4684,7 +4713,7 @@
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
     </row>
-    <row r="22" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="86" t="s">
         <v>94</v>
@@ -4697,7 +4726,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="86" t="s">
         <v>103</v>
@@ -4708,7 +4737,7 @@
       <c r="E23" s="88"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="86" t="s">
         <v>97</v>
@@ -4719,7 +4748,7 @@
       <c r="E24" s="88"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="86" t="s">
         <v>93</v>
@@ -4732,7 +4761,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="86" t="s">
         <v>93</v>
@@ -4745,7 +4774,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="87" t="s">
         <v>93</v>
@@ -4758,59 +4787,59 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="128" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D31" s="128"/>
       <c r="E31" s="128"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>141</v>
       </c>
       <c r="E32" s="88"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>142</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>143</v>
       </c>
       <c r="E33" s="88"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="86" t="s">
         <v>88</v>
@@ -4821,7 +4850,7 @@
       <c r="E34" s="88"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
       <c r="C35" s="86" t="s">
         <v>19</v>
@@ -4832,7 +4861,7 @@
       <c r="E35" s="88"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="86" t="s">
         <v>92</v>
@@ -4845,7 +4874,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="86" t="s">
         <v>95</v>
@@ -4856,7 +4885,7 @@
       <c r="E37" s="88"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="86" t="s">
         <v>88</v>
@@ -4867,7 +4896,7 @@
       <c r="E38" s="88"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="86" t="s">
         <v>92</v>
@@ -4880,7 +4909,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="86" t="s">
         <v>92</v>
@@ -4893,7 +4922,7 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="86" t="s">
         <v>92</v>
@@ -4906,7 +4935,7 @@
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="86" t="s">
         <v>93</v>
@@ -4919,14 +4948,14 @@
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
@@ -4945,24 +4974,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:N88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="14.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="34" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="49" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="90"/>
@@ -4974,7 +5003,7 @@
       <c r="J2" s="91"/>
       <c r="K2" s="91"/>
     </row>
-    <row r="3" spans="2:11" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="93"/>
       <c r="C3" s="94"/>
       <c r="D3" s="95"/>
@@ -4986,7 +5015,7 @@
       <c r="J3" s="91"/>
       <c r="K3" s="91"/>
     </row>
-    <row r="4" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B4" s="96"/>
       <c r="C4" s="97"/>
       <c r="D4" s="96"/>
@@ -4998,10 +5027,10 @@
       <c r="J4" s="91"/>
       <c r="K4" s="91"/>
     </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B5" s="96"/>
       <c r="C5" s="98" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D5" s="99"/>
       <c r="E5" s="91"/>
@@ -5012,7 +5041,7 @@
       <c r="J5" s="91"/>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="96"/>
       <c r="C6" s="100" t="s">
         <v>27</v>
@@ -5026,7 +5055,7 @@
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="96"/>
       <c r="C7" s="100" t="s">
         <v>30</v>
@@ -5040,7 +5069,7 @@
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
     </row>
-    <row r="8" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="96"/>
       <c r="C8" s="101" t="s">
         <v>32</v>
@@ -5054,7 +5083,7 @@
       <c r="J8" s="91"/>
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="96"/>
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
@@ -5066,7 +5095,7 @@
       <c r="J9" s="91"/>
       <c r="K9" s="91"/>
     </row>
-    <row r="10" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="96"/>
       <c r="C10" s="97"/>
       <c r="D10" s="99"/>
@@ -5078,10 +5107,10 @@
       <c r="J10" s="91"/>
       <c r="K10" s="91"/>
     </row>
-    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B11" s="96"/>
       <c r="C11" s="98" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="91"/>
@@ -5092,7 +5121,7 @@
       <c r="J11" s="91"/>
       <c r="K11" s="91"/>
     </row>
-    <row r="12" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="96"/>
       <c r="C12" s="102" t="s">
         <v>36</v>
@@ -5106,7 +5135,7 @@
       <c r="J12" s="91"/>
       <c r="K12" s="91"/>
     </row>
-    <row r="13" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="96"/>
       <c r="C13" s="102" t="s">
         <v>27</v>
@@ -5120,7 +5149,7 @@
       <c r="J13" s="91"/>
       <c r="K13" s="91"/>
     </row>
-    <row r="14" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="96"/>
       <c r="C14" s="102" t="s">
         <v>30</v>
@@ -5134,7 +5163,7 @@
       <c r="J14" s="91"/>
       <c r="K14" s="91"/>
     </row>
-    <row r="15" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B15" s="96"/>
       <c r="C15" s="103" t="s">
         <v>32</v>
@@ -5148,7 +5177,7 @@
       <c r="J15" s="91"/>
       <c r="K15" s="91"/>
     </row>
-    <row r="16" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B16" s="96"/>
       <c r="C16" s="99"/>
       <c r="D16" s="99"/>
@@ -5157,7 +5186,7 @@
       <c r="J16" s="91"/>
       <c r="K16" s="91"/>
     </row>
-    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="96"/>
       <c r="C17" s="97"/>
       <c r="D17" s="99"/>
@@ -5166,10 +5195,10 @@
       <c r="J17" s="91"/>
       <c r="K17" s="91"/>
     </row>
-    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B18" s="96"/>
       <c r="C18" s="98" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D18" s="99"/>
       <c r="H18" s="91"/>
@@ -5177,7 +5206,7 @@
       <c r="J18" s="91"/>
       <c r="K18" s="91"/>
     </row>
-    <row r="19" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="96"/>
       <c r="C19" s="100" t="s">
         <v>22</v>
@@ -5188,7 +5217,7 @@
       <c r="J19" s="91"/>
       <c r="K19" s="91"/>
     </row>
-    <row r="20" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="96"/>
       <c r="C20" s="100" t="s">
         <v>0</v>
@@ -5199,355 +5228,355 @@
       <c r="J20" s="91"/>
       <c r="K20" s="91"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="96"/>
       <c r="C21" s="100" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="99"/>
     </row>
-    <row r="22" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="96"/>
       <c r="C22" s="103" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="99"/>
     </row>
-    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="96"/>
       <c r="C23" s="104"/>
       <c r="D23" s="99"/>
     </row>
-    <row r="24" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="96"/>
       <c r="C24" s="97"/>
       <c r="D24" s="99"/>
     </row>
-    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B25" s="96"/>
       <c r="C25" s="98" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D25" s="99"/>
     </row>
-    <row r="26" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="96"/>
       <c r="C26" s="100" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="99"/>
     </row>
-    <row r="27" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="96"/>
       <c r="C27" s="100" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="99"/>
     </row>
-    <row r="28" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B28" s="96"/>
       <c r="C28" s="100" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="99"/>
     </row>
-    <row r="29" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B29" s="96"/>
       <c r="C29" s="101" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="99"/>
     </row>
-    <row r="30" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="96"/>
       <c r="C30" s="99"/>
       <c r="D30" s="99"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="96"/>
       <c r="C31" s="97"/>
       <c r="D31" s="99"/>
     </row>
-    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B32" s="96"/>
       <c r="C32" s="98" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D32" s="99"/>
     </row>
-    <row r="33" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B33" s="96"/>
       <c r="C33" s="100" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="99"/>
     </row>
-    <row r="34" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B34" s="96"/>
       <c r="C34" s="100" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="99"/>
     </row>
-    <row r="35" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B35" s="96"/>
       <c r="C35" s="101" t="s">
         <v>104</v>
       </c>
       <c r="D35" s="99"/>
     </row>
-    <row r="36" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B36" s="96"/>
       <c r="C36" s="99"/>
       <c r="D36" s="99"/>
     </row>
-    <row r="37" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B37" s="96"/>
       <c r="C37" s="97"/>
       <c r="D37" s="99"/>
     </row>
-    <row r="38" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B38" s="96"/>
       <c r="C38" s="98" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D38" s="99"/>
     </row>
-    <row r="39" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B39" s="96"/>
       <c r="C39" s="102" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="99"/>
     </row>
-    <row r="40" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B40" s="96"/>
       <c r="C40" s="103" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="99"/>
     </row>
-    <row r="41" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B41" s="96"/>
       <c r="C41" s="99"/>
       <c r="D41" s="99"/>
     </row>
-    <row r="42" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B42" s="96"/>
       <c r="C42" s="97"/>
       <c r="D42" s="99"/>
     </row>
-    <row r="43" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B43" s="96"/>
       <c r="C43" s="98" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D43" s="99"/>
     </row>
-    <row r="44" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B44" s="96"/>
       <c r="C44" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="99"/>
     </row>
-    <row r="45" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B45" s="96"/>
       <c r="C45" s="101" t="s">
         <v>104</v>
       </c>
       <c r="D45" s="99"/>
     </row>
-    <row r="46" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B46" s="96"/>
       <c r="C46" s="99"/>
       <c r="D46" s="99"/>
     </row>
-    <row r="47" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B47" s="96"/>
       <c r="C47" s="97"/>
       <c r="D47" s="99"/>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B48" s="96"/>
       <c r="C48" s="98" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D48" s="99"/>
     </row>
-    <row r="49" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B49" s="96"/>
       <c r="C49" s="102" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="99"/>
     </row>
-    <row r="50" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B50" s="96"/>
       <c r="C50" s="102" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="99"/>
     </row>
-    <row r="51" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B51" s="96"/>
       <c r="C51" s="103" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="99"/>
     </row>
-    <row r="52" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B52" s="96"/>
       <c r="C52" s="104"/>
       <c r="D52" s="99"/>
     </row>
-    <row r="53" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B53" s="96"/>
       <c r="C53" s="97"/>
       <c r="D53" s="99"/>
     </row>
-    <row r="54" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B54" s="96"/>
       <c r="C54" s="98" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D54" s="99"/>
     </row>
-    <row r="55" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B55" s="96"/>
       <c r="C55" s="102" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="99"/>
     </row>
-    <row r="56" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B56" s="96"/>
       <c r="C56" s="103" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="99"/>
     </row>
-    <row r="57" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B57" s="96"/>
       <c r="C57" s="104"/>
       <c r="D57" s="99"/>
     </row>
-    <row r="58" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B58" s="96"/>
       <c r="C58" s="97"/>
       <c r="D58" s="99"/>
     </row>
-    <row r="59" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B59" s="96"/>
       <c r="C59" s="98" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D59" s="99"/>
     </row>
-    <row r="60" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B60" s="96"/>
       <c r="C60" s="102" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="99"/>
     </row>
-    <row r="61" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B61" s="96"/>
       <c r="C61" s="102" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="99"/>
     </row>
-    <row r="62" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B62" s="96"/>
       <c r="C62" s="103" t="s">
         <v>56</v>
       </c>
       <c r="D62" s="99"/>
     </row>
-    <row r="63" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B63" s="96"/>
       <c r="C63" s="99"/>
       <c r="D63" s="99"/>
     </row>
-    <row r="64" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B64" s="96"/>
       <c r="C64" s="97"/>
       <c r="D64" s="99"/>
     </row>
-    <row r="65" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B65" s="96"/>
       <c r="C65" s="98" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D65" s="99"/>
     </row>
-    <row r="66" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B66" s="96"/>
       <c r="C66" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="99"/>
     </row>
-    <row r="67" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B67" s="96"/>
       <c r="C67" s="103" t="s">
         <v>57</v>
       </c>
       <c r="D67" s="99"/>
     </row>
-    <row r="68" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B68" s="96"/>
       <c r="C68" s="99"/>
       <c r="D68" s="99"/>
     </row>
-    <row r="69" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B69" s="96"/>
       <c r="C69" s="97"/>
       <c r="D69" s="99"/>
     </row>
-    <row r="70" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B70" s="96"/>
       <c r="C70" s="98" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D70" s="99"/>
     </row>
-    <row r="71" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B71" s="96"/>
       <c r="C71" s="100" t="s">
         <v>42</v>
       </c>
       <c r="D71" s="99"/>
     </row>
-    <row r="72" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B72" s="96"/>
       <c r="C72" s="100" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="99"/>
     </row>
-    <row r="73" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B73" s="96"/>
       <c r="C73" s="101" t="s">
         <v>104</v>
       </c>
       <c r="D73" s="99"/>
     </row>
-    <row r="74" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B74" s="96"/>
       <c r="C74" s="99"/>
       <c r="D74" s="99"/>
     </row>
-    <row r="75" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B75" s="96"/>
       <c r="C75" s="97"/>
       <c r="D75" s="99"/>
     </row>
-    <row r="76" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B76" s="96"/>
       <c r="C76" s="98" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D76" s="99"/>
       <c r="I76" s="91"/>
@@ -5557,7 +5586,7 @@
       <c r="M76" s="91"/>
       <c r="N76" s="91"/>
     </row>
-    <row r="77" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B77" s="96"/>
       <c r="C77" s="100" t="s">
         <v>14</v>
@@ -5570,7 +5599,7 @@
       <c r="M77" s="91"/>
       <c r="N77" s="91"/>
     </row>
-    <row r="78" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B78" s="96"/>
       <c r="C78" s="101" t="s">
         <v>104</v>
@@ -5583,7 +5612,7 @@
       <c r="M78" s="91"/>
       <c r="N78" s="91"/>
     </row>
-    <row r="79" spans="2:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B79" s="96"/>
       <c r="C79" s="99"/>
       <c r="D79" s="99"/>
@@ -5594,7 +5623,7 @@
       <c r="M79" s="91"/>
       <c r="N79" s="91"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C80" s="91"/>
       <c r="D80" s="91"/>
       <c r="I80" s="91"/>
@@ -5604,7 +5633,7 @@
       <c r="M80" s="91"/>
       <c r="N80" s="91"/>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C81" s="91"/>
       <c r="D81" s="91"/>
       <c r="I81" s="91"/>
@@ -5614,7 +5643,7 @@
       <c r="M81" s="91"/>
       <c r="N81" s="91"/>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I82" s="91"/>
       <c r="J82" s="91"/>
       <c r="K82" s="91"/>
@@ -5622,7 +5651,7 @@
       <c r="M82" s="91"/>
       <c r="N82" s="91"/>
     </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I83" s="91"/>
       <c r="J83" s="91"/>
       <c r="K83" s="91"/>
@@ -5630,7 +5659,7 @@
       <c r="M83" s="91"/>
       <c r="N83" s="91"/>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I84" s="91"/>
       <c r="J84" s="91"/>
       <c r="K84" s="91"/>
@@ -5638,7 +5667,7 @@
       <c r="M84" s="91"/>
       <c r="N84" s="91"/>
     </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I85" s="91"/>
       <c r="J85" s="91"/>
       <c r="K85" s="91"/>
@@ -5646,7 +5675,7 @@
       <c r="M85" s="91"/>
       <c r="N85" s="91"/>
     </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I86" s="91"/>
       <c r="J86" s="91"/>
       <c r="K86" s="91"/>
@@ -5654,7 +5683,7 @@
       <c r="M86" s="91"/>
       <c r="N86" s="91"/>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I87" s="91"/>
       <c r="J87" s="91"/>
       <c r="K87" s="91"/>
@@ -5662,7 +5691,7 @@
       <c r="M87" s="91"/>
       <c r="N87" s="91"/>
     </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I88" s="91"/>
       <c r="J88" s="91"/>
       <c r="K88" s="91"/>
@@ -5679,54 +5708,54 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="C4" s="129" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D4" s="130"/>
       <c r="E4" s="130"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="133" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="131" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D6" s="132"/>
       <c r="E6" s="132"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -5745,25 +5774,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -5771,17 +5800,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="118" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D4" s="118"/>
       <c r="E4" s="118"/>
       <c r="F4" s="118"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="51" t="s">
         <v>25</v>
@@ -5797,7 +5826,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -5809,7 +5838,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
         <v>4</v>
@@ -5821,7 +5850,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
@@ -5833,7 +5862,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
@@ -5847,7 +5876,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
@@ -5861,7 +5890,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -5869,7 +5898,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -5880,7 +5909,7 @@
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5891,7 +5920,7 @@
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5903,7 +5932,7 @@
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -5914,7 +5943,7 @@
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="118" t="s">
         <v>133</v>
@@ -5927,7 +5956,7 @@
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
     </row>
-    <row r="17" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="51" t="s">
         <v>25</v>
@@ -5946,7 +5975,7 @@
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="8" t="s">
         <v>4</v>
@@ -5963,7 +5992,7 @@
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
@@ -5978,7 +6007,7 @@
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
@@ -5993,7 +6022,7 @@
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
@@ -6008,7 +6037,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="9"/>
       <c r="D22" s="11" t="s">
@@ -6023,7 +6052,7 @@
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
     </row>
-    <row r="23" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -6034,7 +6063,7 @@
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
     </row>
-    <row r="24" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -6045,7 +6074,7 @@
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -6056,7 +6085,7 @@
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
     </row>
-    <row r="26" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -6064,7 +6093,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -6072,7 +6101,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="119" t="s">
@@ -6082,7 +6111,7 @@
       <c r="F28" s="119"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="51" t="s">
@@ -6096,7 +6125,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="46" t="s">
@@ -6108,7 +6137,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="46" t="s">
@@ -6120,7 +6149,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="46"/>
@@ -6132,7 +6161,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="11"/>
@@ -6142,7 +6171,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -6158,19 +6187,19 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F22 D30:D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F22 D30:D33" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>injury_rating</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F10 E30:E33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F10 E30:E33" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>theft_rating</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F33" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>eligibilityType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D22" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>airbag_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C10 C18:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C10 C18:C22" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>bodyType</formula1>
     </dataValidation>
   </dataValidations>
@@ -6181,32 +6210,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B4" s="34"/>
       <c r="C4" s="118" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="D4" s="118"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
       <c r="C5" s="54" t="s">
         <v>8</v>
@@ -6216,7 +6247,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="34"/>
       <c r="C6" s="32" t="s">
         <v>37</v>
@@ -6226,7 +6257,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="C7" s="32" t="s">
         <v>16</v>
@@ -6236,7 +6267,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="34"/>
       <c r="C8" s="33" t="s">
         <v>15</v>
@@ -6246,7 +6277,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -6257,7 +6288,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>eligibilityType</formula1>
     </dataValidation>
   </dataValidations>
@@ -6266,30 +6297,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -6297,17 +6328,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="37"/>
       <c r="D4" s="120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="121"/>
       <c r="F4" s="122"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="37"/>
       <c r="D5" s="55" t="s">
@@ -6321,7 +6352,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="37"/>
       <c r="D6" s="8" t="s">
@@ -6335,7 +6366,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="37"/>
       <c r="D7" s="8" t="s">
@@ -6349,7 +6380,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="37"/>
       <c r="D8" s="8"/>
@@ -6361,7 +6392,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="37"/>
       <c r="D9" s="9"/>
@@ -6371,7 +6402,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -6379,7 +6410,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -6387,7 +6418,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -6395,7 +6426,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -6403,7 +6434,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6411,17 +6442,17 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="37"/>
       <c r="D15" s="120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="121"/>
       <c r="F15" s="122"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="37"/>
       <c r="D16" s="55" t="s">
@@ -6435,7 +6466,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="37"/>
       <c r="D17" s="8" t="s">
@@ -6449,7 +6480,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="37"/>
       <c r="D18" s="8" t="s">
@@ -6463,7 +6494,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="37"/>
       <c r="D19" s="9"/>
@@ -6473,7 +6504,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6481,7 +6512,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6489,7 +6520,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6497,7 +6528,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -6505,7 +6536,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -6513,17 +6544,17 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B25" s="34"/>
       <c r="C25" s="120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="121"/>
       <c r="E25" s="121"/>
       <c r="F25" s="122"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="34"/>
       <c r="C26" s="55" t="s">
         <v>107</v>
@@ -6539,7 +6570,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="34"/>
       <c r="C27" s="10" t="s">
         <v>106</v>
@@ -6551,7 +6582,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B28" s="34"/>
       <c r="C28" s="8"/>
       <c r="D28" s="10" t="s">
@@ -6563,7 +6594,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B29" s="34"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -6575,7 +6606,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="34"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -6585,7 +6616,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -6601,16 +6632,16 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:F30" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>driverRisk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D18 F6:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D18 F6:F9" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>driver_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F19" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>eligibilityType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>gender</formula1>
     </dataValidation>
   </dataValidations>
@@ -6620,35 +6651,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="123" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="D5" s="123"/>
       <c r="E5" s="123"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="54" t="s">
         <v>58</v>
@@ -6661,7 +6694,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
         <v>39</v>
@@ -6674,7 +6707,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>1</v>
@@ -6687,7 +6720,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -6696,28 +6729,28 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -6727,7 +6760,7 @@
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6737,11 +6770,11 @@
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="123" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="E15" s="123"/>
       <c r="F15" s="6"/>
@@ -6749,7 +6782,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
     </row>
-    <row r="16" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="54" t="s">
@@ -6763,7 +6796,7 @@
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="32" t="s">
@@ -6777,7 +6810,7 @@
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="33"/>
@@ -6789,7 +6822,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -6799,7 +6832,7 @@
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="2:9" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -6809,7 +6842,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
     </row>
-    <row r="21" spans="2:9" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -6819,11 +6852,11 @@
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
     </row>
@@ -6833,13 +6866,13 @@
     <mergeCell ref="D15:E15"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C9 C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C9 C18" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>driver_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D9" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>eligibilityType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D18" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>driverRisk</formula1>
     </dataValidation>
   </dataValidations>
@@ -6848,34 +6881,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="124" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="D4" s="124"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="54" t="s">
         <v>12</v>
@@ -6885,7 +6920,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="32" t="s">
         <v>42</v>
@@ -6895,7 +6930,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="32" t="s">
         <v>17</v>
@@ -6905,7 +6940,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="33"/>
       <c r="D8" s="36">
@@ -6913,19 +6948,19 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6936,7 +6971,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>clientTier</formula1>
     </dataValidation>
   </dataValidations>
@@ -6945,37 +6980,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" customWidth="1"/>
+    <col min="8" max="8" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="123" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D5" s="123"/>
       <c r="E5" s="123"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="54" t="s">
         <v>12</v>
@@ -6988,7 +7025,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
         <v>14</v>
@@ -6999,7 +7036,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
@@ -7010,7 +7047,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
@@ -7021,7 +7058,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
@@ -7032,7 +7069,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -7044,10 +7081,10 @@
     <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C10" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>clientTerm</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E10" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>eligibilityType</formula1>
     </dataValidation>
   </dataValidations>
@@ -7056,39 +7093,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B3:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:E55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="37"/>
       <c r="D4" s="123" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="E4" s="123"/>
       <c r="F4" s="37"/>
     </row>
-    <row r="5" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="37"/>
       <c r="D5" s="54" t="s">
@@ -7099,7 +7138,7 @@
       </c>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="37"/>
       <c r="D6" s="10" t="s">
@@ -7110,7 +7149,7 @@
       </c>
       <c r="F6" s="37"/>
     </row>
-    <row r="7" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="37"/>
       <c r="D7" s="10" t="s">
@@ -7121,7 +7160,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="37"/>
       <c r="D8" s="10" t="s">
@@ -7132,7 +7171,7 @@
       </c>
       <c r="F8" s="37"/>
     </row>
-    <row r="9" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="37"/>
       <c r="D9" s="70"/>
@@ -7141,51 +7180,51 @@
       </c>
       <c r="F9" s="37"/>
     </row>
-    <row r="10" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
     </row>
-    <row r="11" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="37"/>
       <c r="D15" s="123" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="E15" s="123"/>
       <c r="F15" s="37"/>
     </row>
-    <row r="16" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="37"/>
       <c r="D16" s="54" t="s">
@@ -7196,7 +7235,7 @@
       </c>
       <c r="F16" s="37"/>
     </row>
-    <row r="17" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="37"/>
       <c r="D17" s="10" t="s">
@@ -7207,7 +7246,7 @@
       </c>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="37"/>
       <c r="D18" s="72" t="s">
@@ -7218,7 +7257,7 @@
       </c>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="37"/>
       <c r="D19" s="72" t="s">
@@ -7229,7 +7268,7 @@
       </c>
       <c r="F19" s="37"/>
     </row>
-    <row r="20" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="37"/>
       <c r="D20" s="73"/>
@@ -7238,51 +7277,51 @@
       </c>
       <c r="F20" s="37"/>
     </row>
-    <row r="21" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
     </row>
-    <row r="22" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
     </row>
-    <row r="23" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
     </row>
-    <row r="24" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
     </row>
-    <row r="25" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
     </row>
-    <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="37"/>
       <c r="D26" s="123" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="E26" s="123"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="37"/>
       <c r="D27" s="54" t="s">
@@ -7293,7 +7332,7 @@
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="37"/>
       <c r="D28" s="10" t="s">
@@ -7304,7 +7343,7 @@
       </c>
       <c r="F28" s="37"/>
     </row>
-    <row r="29" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="37"/>
       <c r="D29" s="72" t="s">
@@ -7315,7 +7354,7 @@
       </c>
       <c r="F29" s="37"/>
     </row>
-    <row r="30" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="37"/>
       <c r="D30" s="73"/>
@@ -7324,51 +7363,51 @@
       </c>
       <c r="F30" s="37"/>
     </row>
-    <row r="31" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
     </row>
-    <row r="32" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
     </row>
-    <row r="33" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
     </row>
-    <row r="34" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
     </row>
-    <row r="35" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
     </row>
-    <row r="36" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="37"/>
       <c r="D36" s="123" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="E36" s="123"/>
       <c r="F36" s="37"/>
     </row>
-    <row r="37" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="37"/>
       <c r="D37" s="54" t="s">
@@ -7379,7 +7418,7 @@
       </c>
       <c r="F37" s="37"/>
     </row>
-    <row r="38" spans="2:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="C38" s="37"/>
       <c r="D38" s="74" t="s">
@@ -7390,7 +7429,7 @@
       </c>
       <c r="F38" s="37"/>
     </row>
-    <row r="39" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="37"/>
       <c r="D39" s="72" t="s">
@@ -7401,7 +7440,7 @@
       </c>
       <c r="F39" s="37"/>
     </row>
-    <row r="40" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="C40" s="37"/>
       <c r="D40" s="73"/>
@@ -7410,51 +7449,51 @@
       </c>
       <c r="F40" s="37"/>
     </row>
-    <row r="41" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
     </row>
-    <row r="42" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
     </row>
-    <row r="43" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
     </row>
-    <row r="44" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
     </row>
-    <row r="45" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
     </row>
-    <row r="46" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="37"/>
       <c r="D46" s="123" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="E46" s="123"/>
       <c r="F46" s="37"/>
     </row>
-    <row r="47" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="C47" s="37"/>
       <c r="D47" s="54" t="s">
@@ -7465,7 +7504,7 @@
       </c>
       <c r="F47" s="37"/>
     </row>
-    <row r="48" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="37"/>
       <c r="D48" s="72" t="s">
@@ -7476,7 +7515,7 @@
       </c>
       <c r="F48" s="37"/>
     </row>
-    <row r="49" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="C49" s="37"/>
       <c r="D49" s="73"/>
@@ -7485,51 +7524,51 @@
       </c>
       <c r="F49" s="37"/>
     </row>
-    <row r="50" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
     </row>
-    <row r="52" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
     </row>
-    <row r="53" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
     </row>
-    <row r="54" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
     </row>
-    <row r="55" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="123" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="D55" s="123"/>
       <c r="E55" s="123"/>
       <c r="F55" s="37"/>
     </row>
-    <row r="56" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="54" t="s">
         <v>50</v>
@@ -7542,7 +7581,7 @@
       </c>
       <c r="F56" s="37"/>
     </row>
-    <row r="57" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="77" t="s">
         <v>0</v>
@@ -7553,7 +7592,7 @@
       </c>
       <c r="F57" s="37"/>
     </row>
-    <row r="58" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="C58" s="77" t="s">
         <v>127</v>
@@ -7564,7 +7603,7 @@
       </c>
       <c r="F58" s="37"/>
     </row>
-    <row r="59" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="C59" s="77" t="s">
         <v>128</v>
@@ -7575,7 +7614,7 @@
       </c>
       <c r="F59" s="37"/>
     </row>
-    <row r="60" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="C60" s="77"/>
       <c r="D60" s="77" t="s">
@@ -7586,7 +7625,7 @@
       </c>
       <c r="F60" s="37"/>
     </row>
-    <row r="61" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="C61" s="78"/>
       <c r="D61" s="78"/>
@@ -7595,20 +7634,20 @@
       </c>
       <c r="F61" s="37"/>
     </row>
-    <row r="62" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
     </row>
-    <row r="63" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C63" s="50"/>
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
     </row>
-    <row r="64" spans="2:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C64" s="50"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
@@ -7625,19 +7664,19 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C60" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>airbag_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>theft_rating</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D39" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>injury_rating</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>car_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>coverage</formula1>
     </dataValidation>
   </dataValidations>
@@ -7648,23 +7687,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.88671875" customWidth="1"/>
     <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="25.28515625" customWidth="1"/>
+    <col min="19" max="19" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -7672,17 +7713,17 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="123" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="D4" s="123"/>
       <c r="E4" s="123"/>
       <c r="F4" s="123"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="54" t="s">
         <v>58</v>
@@ -7698,7 +7739,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="126" t="s">
         <v>39</v>
@@ -7714,7 +7755,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="127"/>
       <c r="D7" s="111" t="s">
@@ -7728,7 +7769,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="127"/>
       <c r="D8" s="111" t="s">
@@ -7740,7 +7781,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="127"/>
       <c r="D9" s="111" t="s">
@@ -7752,7 +7793,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="127" t="s">
         <v>1</v>
@@ -7766,7 +7807,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="127"/>
       <c r="D11" s="111"/>
@@ -7776,7 +7817,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="113"/>
       <c r="D12" s="114"/>
@@ -7786,7 +7827,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -7794,7 +7835,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -7802,7 +7843,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -7810,7 +7851,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -7818,7 +7859,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -7826,17 +7867,17 @@
       <c r="F17" s="37"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="125" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="F18" s="125"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -7848,7 +7889,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -7860,7 +7901,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -7872,7 +7913,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -7880,7 +7921,7 @@
       <c r="F22" s="37"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -7888,7 +7929,7 @@
       <c r="F23" s="37"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -7896,7 +7937,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -7904,7 +7945,7 @@
       <c r="F25" s="37"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -7912,17 +7953,17 @@
       <c r="F26" s="37"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="108" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -7932,7 +7973,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -7942,7 +7983,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -7950,7 +7991,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="81"/>
     </row>
   </sheetData>
@@ -7962,13 +8003,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21 C29 E20:E21 E29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21 C29 E20:E21 E29" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>driverRisk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>maritalStatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C12" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>driver_type</formula1>
     </dataValidation>
   </dataValidations>
